--- a/sivanesan.xlsx
+++ b/sivanesan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
     <sheet name="WM" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="132">
   <si>
     <t>Scope:</t>
   </si>
@@ -312,35 +313,6 @@
 4.click on  drop down box "Page " option
 5.Click on "Show" button  option 
 6.Move mouse pointer over the product image
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Semi-Automatic page should be opened with under Washing machine
-2. In filter option should be displayed with following 
-            a. price
-            b. availablity
-c.Brand
-d.Washing Capcity
-3.The following options for sorting the products will be displayed
-a)Featured
-b)Name: Ato Z
-c)Name:Z to A
-d)Price:Low to High
-e)Price: High to Low
-f)Newest arrivals
-4.the following page optione should be displayed 
-12
-24
-36
-48
-72
-120
-5.The number of products to be listed will be displayed based on "Grid" and "List" view
-6. Four additional options will be displayed
-            a. Add to Cart
-            b. Add to Wishlist
-            c. Add to Compare
-            d. Description
 </t>
   </si>
   <si>
@@ -1009,6 +981,654 @@
       </rPr>
       <t>red</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page is opened  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact us  page is displayed 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in  page is opened </t>
+  </si>
+  <si>
+    <t>A message "Thank You for Your Subscription " is  displayed on the  Home page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)HOME APPLIANCES page is opened 
+2)AUDIO &amp; VIDEO  page is opened 
+3)ELECTRONICS page is opened 
+4)SECURITY SOLUTION page is opened 
+5)GIFT CARD page is opened
+6)OFFER ZONE page is opened 
+7)The following items is displayed
+I.What's New
+II. All Brands
+III. Recently viewed products
+IV. Compare products lists
+V.About US
+VI.Shipping and returns
+VII.Privacy Notice
+VIII.Conditions of use
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following items is displayed on "Home  Appliances page" 
+CONTACT US
+HELP&amp; SERVICES
+LOG IN  
+SATHYA LOGO
+Search Box Icon
+Compare Products
+Wish Cart
+Shooping Cart
+Audio &amp; Video
+Electronics
+Security Solutions
+Gift Card
+Offer Zone
+Informations
+All brands
+What's New
+Recently viewed products
+Compare products list
+SERVICE
+Contact us 
+Shipping &amp;Return
+COMPANY
+About us 
+Privacy Notice
+Condition of use
+Newsletters
+Featured Products
+All brands
+</t>
+  </si>
+  <si>
+    <t>1)FEATURED product is displayed on HOME page
+2)ALL BRAND page  is displayed on home page</t>
+  </si>
+  <si>
+    <t>1.Wish List page is displayed
+2.Shipping Cart is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. .Login page is displayed with following options.
+1.Register Button 
+2.Email
+3.password
+4.Login Buton
+2. Entered data is displayed .
+3. Entered password is displayed.
+4. The "Home" page is displayed with registered account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. A drop-down box with the following options is displayed
+          a) Air Conditioner
+i)Cassette AC
+ii)Split AC
+iii)Window AC
+b)Refrigerator
+i)Single Door
+ii)Double Door
+iii)Triple Door
+iv)Bottom Mounted
+v)Side By Side
+c)Air Cooler
+d)Washing Machine
+i)Fully Automatic
+ii)Semi-Automatic
+e)Water Heater
+i)Instant Water Heater
+ii)Storage Water Heater
+f)Kitchen Appliances
+i)Induction Stove
+ii)Gas Stove
+iii)Mixers
+iv)Chimney
+v)Grinder
+vi)HOB
+vii)Dish Washer
+viii)Kitchen Set
+more...
+g)Chest Freezer &amp; Deep Freezer
+h)Stabilizer
+i)Water Dispenser
+j)Home Accessories
+k)Vacuum Cleaner
+l)Water Purifier
+m)Small Appliances
+i)Sandwich Grill
+ii)Sandwich Maker
+iii)Egg Boiler
+iv)Plastic Container Set
+v)Coffee Maker
+vi)Electric Kettle
+vii)Fan
+viii)Flask
+2. The "WASHING MACHINE " page is opened</t>
+  </si>
+  <si>
+    <t>1. The "WASHING MACHINE" page is opened with following items 
+i)Semi-Automatic
+ii)Fully- Automatic
+2.Semi-Automatic page is opened with under Washing machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Semi-Automatic page is opened with under Washing machine
+2. In filter option is displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capcity
+3.The following options for sorting the products will be displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+4.the following page optione is displayed 
+12
+24
+36
+48
+72
+120
+5.The number of products to be listed will be displayed based on "Grid" and "List" view
+6. Four additional options will be displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
+    <t>1. The "Semi-Automatic" page is opened
+2. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3. The "Cart" page is displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+                  4.Shopping card page is displayed for following items
+a. Product image
+b.product image 
+c. product price
+d.product qty
+e.remove product
+f.Move to wish list
+g. product total
+h.Shipping Price
+i.Tax
+j. Estimate Shipping and Tax
+                 i. "Country" drop-down box
+                 ii. "State/Province" drop-down box
+                 iii. "Zip/Postal Code" text box
+                 iv. "Estimate Shipping" button
+            k. Discount Codes
+                  i. "Enter your coupon code if you have one" text box
+                  ii. Apply Coupon
+            l.Gift Cards
+                 i.Enter your gift card  code if u have one"test box"
+               ii)Apply gift card
+5. Redirects to application home page
+6. Shows the message "Shopping Cart is Empty"
+7. The entered code is displayed
+8. Discount is displayed
+9. The "Checkout" page will be displayed with the following section:
+             a. Billing Information
+             b. Shipping Information
+             c. Shipping Method
+             d. Payment Information
+             e. Order Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Semi-Automatic" page is opened
+2. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3. The "My Wishlist" page is displayed with the table format having columns
+            a. Product Image
+            b. Product Details and Comment
+            c. Add to Cart
+            d. Remove Item
+4. Product Question page  is displayed and you have to give  personal details for the same 
+5. The number of product quantity is increased/decreased5
+6. Facebook page is opened
+7. Twitter page is opened
+8. Print page is opened
+9.Email page is opened
+10.A drop-down box with the following options is displayed
+a.Pinterest
+b.Gmail
+c.Linkedin
+d.Emailapp
+e.Tumbir
+f.Messenger
+11.If we entered valid emaild id  It is display a message "Thank You for Your Subscription " is  displayed on the  Home page .
+</t>
+  </si>
+  <si>
+    <t>1. The "WASHING MACHINE" page is opened with following items 
+i)Semi-Automatic
+ii)Fully- Automatic
+a.Top Load
+b.Front Load
+2.Fully-Automatic page is opened with under Washing machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Fully-Automatic page is opened with under Washing machine
+2. Top Load page is opened with under Fully-Automatic
+3. In filter option is displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capcity
+4.The following options for sorting the products will be displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+5.the following page optione is displayed 
+12
+24
+36
+48
+72
+120
+6.The number of products to be listed will be displayed based on "Grid" and "List" view
+7. Four additional options will be displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Fully-Automatic" page is opened
+2. Top Load page is opened with under Fully-Automatic
+3. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+4. The "Cart" page is displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+5.Shopping card page is displayed for following items
+a. Product image
+b.product image 
+c. product price
+d.product qty
+e.remove product
+f.Move to wish list
+g. product total
+h.Shipping Price
+i.Tax
+j. Estimate Shipping and Tax
+                 i. "Country" drop-down box
+                 ii. "State/Province" drop-down box
+                 iii. "Zip/Postal Code" text box
+                 iv. "Estimate Shipping" button
+            k. Discount Codes
+                  i. "Enter your coupon code if you have one" text box
+                  ii. Apply Coupon
+            l.Gift Cards
+                 i.Enter your gift card  code if u have one"test box"
+               ii)Apply gift card
+6. Redirects to application home page
+7. Shows the message "Shopping Cart is Empty"
+8. The entered code is displayed
+9. Discount is displayed
+10. The "Checkout" page will be displayed with the following section:
+             a. Billing Information
+             b. Shipping Information
+             c. Shipping Method
+             d. Payment Information
+             e. Order Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Fully-Automatic" page is opened
+2. Top Load page is opened with under Fully-Automatic
+3. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+4. The "My Wishlist" page is displayed with the table format having columns
+            a. Product Image
+            b. Product Details and Comment
+            c. Add to Cart
+            d. Remove Item
+5. Product Question page  is displayed and you have to give  personal details for the same 
+6. The number of product quantity is increased/decreased
+7. Facebook page is opened
+8. Twitter page is opened
+9. Print page is opened
+10.Email page is opened
+11.A drop-down box with the following options is displayed
+a.Pinterest
+b.Gmail
+c.Linkedin
+d.Emailapp
+e.Tumbir
+f.Messenger
+12.If we entered valid emaild id  It is display a message "Thank You for Your Subscription " is  displayed on the  Home page .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Fully-Automatic page is opened with under Washing machine
+2. Front Load page is opened with under Fully-Automatic
+3. In filter option is displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capcity
+4.The following options for sorting the products will be displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+5.the following page optione is displayed 
+12
+24
+36
+48
+72
+120
+6.The number of products to be listed will be displayed based on "Grid" and "List" view
+7. Four additional options will be displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Fully-Automatic" page is opened
+2. Front Load page is opened with under Fully-Automatic
+3. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+4. The "Cart" page is displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+5.Shopping card page is displayed for following items
+a. Product image
+b.product image 
+c. product price
+d.product qty
+e.remove product
+f.Move to wish list
+g. product total
+h.Shipping Price
+i.Tax
+j. Estimate Shipping and Tax
+                 i. "Country" drop-down box
+                 ii. "State/Province" drop-down box
+                 iii. "Zip/Postal Code" text box
+                 iv. "Estimate Shipping" button
+            k. Discount Codes
+                  i. "Enter your coupon code if you have one" text box
+                  ii. Apply Coupon
+            l.Gift Cards
+                 i.Enter your gift card  code if u have one"test box"
+               ii)Apply gift card
+6. Redirects to application home page
+7. Shows the message "Shopping Cart is Empty"
+8. The entered code is displayed
+9. Discount is displayed
+10. The "Checkout" page will be displayed with the following section:
+             a. Billing Information
+             b. Shipping Information
+             c. Shipping Method
+             d. Payment Information
+             e. Order Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Fully-Automatic" page is opened
+2. Front Load page is opened with under Fully-Automatic
+3. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+4. The "My Wishlist" page is displayed with the table format having columns
+            a. Product Image
+            b. Product Details and Comment
+            c. Add to Cart
+            d. Remove Item
+5. Product Question page  is displayed and you have to give  personal details for the same 
+6. The number of product quantity is increased/decreased
+7. Facebook page is opened
+8. Twitter page is opened
+9. Print page is opened
+10.Email page is opened
+11.A drop-down box with the following options is displayed
+a.Pinterest
+b.Gmail
+c.Linkedin
+d.Emailapp
+e.Tumbir
+f.Messenger
+12.If we entered valid emaild id  It is display a message "Thank You for Your Subscription " is  displayed on the  Home page .
+</t>
+  </si>
+  <si>
+    <t>1)It is displayed online registeration  creation page with followings
+     Name
+     Email Id
+     Phone number
+     Product
+     Service call id
+     Subject
+2)It is displayed the "ERROR " message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Semi-Automatic page should be opened with under Washing machine
+2. In filter option should be displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capcity
+3.The following options for sorting the products should be displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+4.the following page option should be displayed 
+12
+24
+36
+48
+72
+120
+5.The number of products to be listed should be displayed based on "Grid" and "List" view
+6. Four additional options should be displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Semi-Automatic page is opened with under Washing machine
+2. In filter option is displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capcity
+3.The following options for sorting the products is displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+4.the following page optione is displayed 
+12
+24
+36
+48
+72
+120
+5.The number of products to be listed is  displayed based on "Grid" and "List" view
+6. Four additional options is displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="15.75"/>
@@ -1836,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -1851,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1969,7 +2589,7 @@
       <c r="H10" s="61"/>
       <c r="I10" s="62"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -1983,12 +2603,16 @@
       <c r="E12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="60">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
@@ -2002,8 +2626,12 @@
       <c r="E13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
@@ -2021,12 +2649,16 @@
       <c r="E14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="15" spans="1:9" s="17" customFormat="1" ht="105">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
@@ -2040,12 +2672,16 @@
       <c r="E15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" ht="300">
+    <row r="16" spans="1:9" s="17" customFormat="1" ht="409.5">
       <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
@@ -2059,8 +2695,12 @@
       <c r="E16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
@@ -2078,12 +2718,16 @@
       <c r="E17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" ht="60">
+    <row r="18" spans="1:9" s="17" customFormat="1" ht="120">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
@@ -2097,12 +2741,16 @@
       <c r="E18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="75">
       <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
@@ -2116,37 +2764,47 @@
       <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="189">
+    <row r="20" spans="1:9" ht="330.75">
       <c r="A20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>95</v>
+      <c r="F20" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="60" customFormat="1" ht="126">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="22"/>
       <c r="D21" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="57" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="59"/>
@@ -2160,7 +2818,7 @@
     </row>
     <row r="23" spans="1:9" ht="19.5">
       <c r="A23" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2176,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
@@ -2212,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -2227,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2334,7 +2992,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -2347,7 +3005,7 @@
     </row>
     <row r="11" spans="1:9" s="44" customFormat="1" ht="409.5">
       <c r="A11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="42" t="s">
@@ -2359,18 +3017,22 @@
       <c r="E11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="41"/>
+      <c r="F11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H11" s="41"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:9" s="44" customFormat="1" ht="120">
+    <row r="12" spans="1:9" s="44" customFormat="1" ht="240">
       <c r="A12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>51</v>
@@ -2378,46 +3040,58 @@
       <c r="E12" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="409.5">
       <c r="A13" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
+        <v>129</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="409.5">
       <c r="A14" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
@@ -2427,35 +3101,39 @@
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" s="36" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="409.5">
       <c r="A17" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42" t="s">
@@ -2467,83 +3145,113 @@
       <c r="E17" s="42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="150">
+      <c r="F17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="270">
       <c r="A18" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>65</v>
+      <c r="F18" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="409.5">
       <c r="A19" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>67</v>
+      <c r="F19" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.5">
       <c r="A20" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.5">
       <c r="A21" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>70</v>
+      <c r="F21" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="36" customFormat="1">
       <c r="A22" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="409.5">
       <c r="A23" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42" t="s">
@@ -2555,80 +3263,114 @@
       <c r="E23" s="42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="150">
+      <c r="F23" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="270">
       <c r="A24" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>65</v>
+      <c r="F24" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="409.5">
       <c r="A25" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>85</v>
+      <c r="F25" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="409.5">
       <c r="A26" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>89</v>
+      <c r="F26" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.5">
       <c r="A27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="53" customFormat="1" ht="165">
+      <c r="F27" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="53" customFormat="1" ht="285">
       <c r="A28" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="E28" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="55" t="s">
-        <v>102</v>
-      </c>
+      <c r="F28" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,4 +3387,105 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A9:A26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A9:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="48.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="1:1" ht="409.5">
+      <c r="A9" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="90">
+      <c r="A10" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="409.5">
+      <c r="A11" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="409.5">
+      <c r="A12" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="409.5">
+      <c r="A13" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="35"/>
+    </row>
+    <row r="15" spans="1:1" ht="409.5">
+      <c r="A15" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="120">
+      <c r="A16" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="409.5">
+      <c r="A17" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="409.5">
+      <c r="A18" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="409.5">
+      <c r="A19" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="35"/>
+    </row>
+    <row r="21" spans="1:1" ht="409.5">
+      <c r="A21" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="120">
+      <c r="A22" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="409.5">
+      <c r="A23" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="409.5">
+      <c r="A24" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="409.5">
+      <c r="A25" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="135">
+      <c r="A26" s="55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sivanesan.xlsx
+++ b/sivanesan.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
     <sheet name="WM" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
   <si>
     <t>Scope:</t>
   </si>
@@ -242,11 +240,6 @@
   </si>
   <si>
     <t>76U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Move mouse pointer over "HOME APPLIANCES" option
-2. Select "WASHING MACHINE" option</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -307,92 +300,6 @@
 2.Semi-Automatic page should be opened with under Washing machine</t>
   </si>
   <si>
-    <t xml:space="preserve">1.click on "Semi-Automatic" page
- 2. click on ""Filters" option 
-3. Click on drop-down box in "Sort By" option and select the listed options
-4.click on  drop down box "Page " option
-5.Click on "Show" button  option 
-6.Move mouse pointer over the product image
-</t>
-  </si>
-  <si>
-    <t>1. Open "Semi-Automatic" page under Washing Machine page
-2. Click the product image
-3. Click "Add to Cart" button 
-4. Click "Go to cart " button
-5. Click "Continue shopping" button
-6. Click "Remove Shopping Cart" button
-7. Enter the valid "Discount Codes" in the text field
-8. Click "Apply Coupon" button
-9. Click "Proceed to Checkout" button</t>
-  </si>
-  <si>
-    <t>1. The "Semi-Automatic" page should be opened
-2. Product web page should be  displayed with the following options
-            a. Product Image
-            b. Product Number
-            c. Product Name
-            d. Product Price
-            e. Product Availability
-            f. Product Category
-            g. Product compare
-            h.Product Question Button 
-            i. producy Quantity
-            j. "Add to Cart" button
-            k. "Add to Wishlist" button
-            l. "Add to Compare" button
-            m. Description
-            n. Reviews
-            o. Related products
-            p.Recently Viewed Products
-            q.Facebook Icon
-r.Twitter Icon
-s.Print
-t.Email
-u.Add Button
-3. The "Cart" page should be displayed with three sections
-            a. Shopping Cart
-                 i. Product Image
-                 ii. Product Name
-                 iii. Producy Quantity
-                 iv. Move to Wishlist
-                 v. Subtotal
-                 vi. Remove
-                 vii. "Go to cart " button
-                 viii. "Check out" button
-                  4.Shopping card page should be displayed for following items
-a. Product image
-b.product image 
-c. product price
-d.product qty
-e.remove product
-f.Move to wish list
-g. product total
-h.Shipping Price
-i.Tax
-j. Estimate Shipping and Tax
-                 i. "Country" drop-down box
-                 ii. "State/Province" drop-down box
-                 iii. "Zip/Postal Code" text box
-                 iv. "Estimate Shipping" button
-            k. Discount Codes
-                  i. "Enter your coupon code if you have one" text box
-                  ii. Apply Coupon
-            l.Gift Cards
-                 i.Enter your gift card  code if u have one"test box"
-               ii)Apply gift card
-5. Redirects to application home page
-6. Shows the message "Shopping Cart is Empty"
-7. The entered code should be displayed
-8. Discount should be displayed
-9. The "Checkout" page will be displayed with the following section:
-             a. Billing Information
-             b. Shipping Information
-             c. Shipping Method
-             d. Payment Information
-             e. Order Review</t>
-  </si>
-  <si>
     <t>SA_WM_2.0</t>
   </si>
   <si>
@@ -416,11 +323,6 @@
 2.  Open "Washing Machine" page 
 3. Get discount codes with valid credentials
 4. User should  already register the account  for application </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "WASHING MACHNE " page
-2.click on "Fully-Automatic-Automatic" page
-</t>
   </si>
   <si>
     <t>1. The "WASHING MACHINE" page should be opened with following items 
@@ -429,15 +331,6 @@
 a.Top Load
 b.Front Load
 2.Fully-Automatic page should be opened with under Washing machine</t>
-  </si>
-  <si>
-    <t>1.click on "Fully-Automatic" page
-2. Click on "Top Load" page under Fully-Automatic
-3. click on ""Filters" option 
-4. Click on drop-down box in "Sort By" option and select the listed options
-5.click on  drop down box "Page " option
-6.Click on "Show" button  option 
-7.Move mouse pointer over the product image</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -468,34 +361,6 @@
             b. Add to Wishlist
             c. Add to Compare
             d. Description
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Open "Fully-Automatic" page under Washing Machine page
-2. Click on "Top Load" page under Fully-Automatic
-3. Click on the product image
-4. Click on "Add to Cart" button 
-5. Click on "Go to cart " button
-6. Click on "Continue shopping" button
-7. Click on "Remove Shopping Cart" button
-8. Enter the valid "Discount Codes" in the text field
-9. Click on "Apply Coupon" button
-10. Click on "Proceed to Checkout" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Fully-Automatic" page
-2. Click on "Top Load" page under Fully-Automatic
-3. Click on the product image
-4. Click "Add to Wishlist" option
-5. Click to "Question " button
-6. Click "Qty" plus and minus symbol button
-7.click on "Facebook" icon
-8.Click on "Twitter" icon
-9.Click on "Print" icon
-10.Click on "Email" icon 
-11.Move mouse over on  "ADD" icon option
-12.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
 </t>
   </si>
   <si>
@@ -543,66 +408,6 @@
 e.Tumbir
 f.Messenger
 12.If we entered valid emaild id  It should be display a message "Thank You for Your Subscription " should be  displayed on the  Home page .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Semi-Automatic" page
-2. Click the product image
-3. Click "Add to Wishlist" option
-4. Click to "Question " button
-5. Click "Qty" plus and minus symbol button
-6.click on "Facebook" icon
-7.Click on "Twitter" icon
-8.Click on "Print" icon
-9.Click on "Email" icon 
-10.Move mouse over on  "ADD" icon option
-11.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. The "Semi-Automatic" page should be opened
-2. Product web page should be  displayed with the following options
-            a. Product Image
-            b. Product Number
-            c. Product Name
-            d. Product Price
-            e. Product Availability
-            f. Product Category
-            g. Product compare
-            h.Product Question Button 
-            i. producy Quantity
-            j. "Add to Cart" button
-            k. "Add to Wishlist" button
-            l. "Add to Compare" button
-            m. Description
-            n. Reviews
-            o. Related products
-            p.Recently Viewed Products
-            q.Facebook Icon
-r.Twitter Icon
-s.Print
-t.Email
-u.Add Button
-3. The "My Wishlist" page should be displayed with the table format having columns
-            a. Product Image
-            b. Product Details and Comment
-            c. Add to Cart
-            d. Remove Item
-4. Product Question page  should be displayed and you have to give  personal details for the same 
-5. The number of product quantity should be increased/decreased5
-6. Facebook page should be opened
-7. Twitter page should be opened
-8. Print page should be opened
-9.Email page should be opened
-10.A drop-down box with the following options should be displayed
-a.Pinterest
-b.Gmail
-c.Linkedin
-d.Emailapp
-e.Tumbir
-f.Messenger
-11.If we entered valid emaild id  It should be display a message "Thank You for Your Subscription " should be  displayed on the  Home page .
 </t>
   </si>
   <si>
@@ -704,15 +509,6 @@
     <t>SA_WM_4.1</t>
   </si>
   <si>
-    <t>1.click on "Fully-Automatic" page
-2. Click on "Front Load" page under Fully-Automatic
-3. click on ""Filters" option 
-4. Click on drop-down box in "Sort By" option and select the listed options
-5.click on  drop down box "Page " option
-6.Click on "Show" button  option 
-7.Move mouse pointer over the product image</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. Fully-Automatic page should be opened with under Washing machine
 2. Front Load page should be opened with under Fully-Automatic
@@ -748,19 +544,6 @@
   </si>
   <si>
     <t>SA_WM_4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Open "Fully-Automatic" page under Washing Machine page
-2. Click on "Front Load" page under Fully-Automatic
-3. Click on the product image
-4. Click on "Add to Cart" button 
-5. Click on "Go to cart " button
-6. Click on "Continue shopping" button
-7. Click on "Remove Shopping Cart" button
-8. Enter the valid "Discount Codes" in the text field
-9. Click on "Apply Coupon" button
-10. Click on "Proceed to Checkout" button</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -834,21 +617,6 @@
     <t>Sl_MN_4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open "Fully-Automatic" page
-2. Click on "Front Load" page under Fully-Automatic
-3. Click on the product image
-4. Click "Add to Wishlist" option
-5. Click to "Question " button
-6. Click "Qty" plus and minus symbol button
-7.click on "Facebook" icon
-8.Click on "Twitter" icon
-9.Click on "Print" icon
-10.Click on "Email" icon 
-11.Move mouse over on  "ADD" icon option
-12.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. The "Fully-Automatic" page should be opened
 2. Front Load page should be opened with under Fully-Automatic
@@ -919,12 +687,6 @@
 </t>
   </si>
   <si>
-    <t>Testing home module</t>
-  </si>
-  <si>
-    <t>Testing Washing machine module</t>
-  </si>
-  <si>
     <t>Sathya E commerce</t>
   </si>
   <si>
@@ -934,39 +696,7 @@
     <t>User already in  home page.</t>
   </si>
   <si>
-    <t>1)Click on the "LIVE CHAT Online" box.
-2)Enter the alphabets in mobile number acceptance page.</t>
-  </si>
-  <si>
-    <t>1)It should be displayed online registeration  creation page with followings
-     Name
-     Email Id
-     Phone number
-     Product
-     Service call id
-     Subject
-2)It should be displayed the "ERROR " message.</t>
-  </si>
-  <si>
     <t>Sl_MN_4.5</t>
-  </si>
-  <si>
-    <t>1. Open Application URL.
-2. Click on  "Login" tab.
-3. Enter the invalid "email/phone" in the text field
-4. Enter the invalid "Password" in the text field.
-5. Click "Login" button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The "SATHYA.IN" homepage should be displayed.
-2. The "Sign in to access SATHYA" page should be displayed.
-3. Entered text should be displayed.
-4. Entered password should be displayed.
-5. The error message  should be displayed .
-</t>
-  </si>
-  <si>
-    <t>SA_HME_1.9</t>
   </si>
   <si>
     <r>
@@ -983,7 +713,293 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">
+1. Move mouse pointer hover "HOME APPLIANCES" option
+2. Select "WASHING MACHINE" option</t>
+  </si>
+  <si>
+    <t>1.click on "Fully-Automatic" page
+2. Click on "Top Load" page under Fully-Automatic
+3. click on ""Filters" option 
+4. Click on drop-down box in "Sort By" option and select the listed options
+5.click on  drop down box "Page " option
+6.Click on "Show" button  option 
+7.Move mouse pointer hover the product image</t>
+  </si>
+  <si>
+    <t>Sl_MN_4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing ,Editing adding the Washing machine module </t>
+  </si>
+  <si>
+    <t>Testing  the Home page  module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on "Semi-Automatic" hyper link 
+ 2. click on ""Filters" option 
+3. Click on drop-down box in "Sort By" option and select the listed options
+4.click on  drop down box "Page " option
+5.Click on "Show" button  option 
+6.Move mouse pointer hover the product image
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on  "Semi-Automatic" hyper link under Washing Machine page
+2. Click the product image
+3)Click "Add to Cart" button
+4)click on "Product quantity" to edit the quantity 
+5)Enter the "product quantity  "
+ is 0
+6)click on "Goto cart " button 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on  "Fully-Automatic" hyper link
+2. Click on "Front Load" page under Fully-Automatic
+3. Click on the product image
+4. Click "Add to Wishlist" option
+5. Click to "Question " button
+6. Click "Qty" plus and minus symbol button
+7.click on "Facebook" icon
+8.Click on "Twitter" icon
+9.Click on "Print" icon
+10.Click on "Email" icon 
+11.Move mouse hover on  "ADD" icon option
+12.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click "Fully-Automatic" hyper link under Washing Machine page
+2. Click on "Front Load" page under Fully-Automatic
+3. Click on the product image
+4. Click on "Add to Cart" button 
+5. Click on "Go to cart " button
+6. Click on "Continue shopping" button
+7. Click on "Remove Shopping Cart" button
+8. Enter the valid "Discount Codes" in the text field
+9. Click on "Apply Coupon" button
+10. Click on "Proceed to Checkout" button</t>
+  </si>
+  <si>
+    <t>1.click on "Fully-Automatic" hyper link
+2. Click on "Front Load" page under Fully-Automatic
+3. click on ""Filters" option 
+4. Click on drop-down box in "Sort By" option and select the listed options
+5.click on  drop down box "Page " option
+6.Click on "Show" button  option 
+7.Move mouse pointer hover the product image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "WASHING MACHNE " page
+2.click on "Fully-Automatic-Automatic" hyper link 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Fully-Automatic" hyper link
+2. Click on "Top Load" page under Fully-Automatic
+3. Click on the product image
+4. Click "Add to Wishlist" option
+5. Click to "Question " button
+6. Click "Qty" plus and minus symbol button
+7.click on "Facebook" icon
+8.Click on "Twitter" icon
+9.Click on "Print" icon
+10.Click on "Email" icon 
+11.Move mouse hover on  "ADD" icon option
+12.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click "Fully-Automatic" Hyper link under Washing Machine page
+2. Click on "Top Load" page under Fully-Automatic
+3. Click on the product image
+4. Click on "Add to Cart" button 
+5. Click on "Go to cart " button
+6. Click on "Continue shopping" button
+7. Click on "Remove Shopping Cart" button
+8. Enter the valid "Discount Codes" in the text field
+9. Click on "Apply Coupon" button
+10. Click on "Proceed to Checkout" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "WASHING MACHNE " page
+2.click on "Fully-Automatic-Automatic" hyper link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on  "Semi-Automatic" hyper link
+2. Click the product image
+3. Click "Add to Wishlist" option
+4. Click to "Question " button
+5. Click "Qty" plus and minus symbol button
+6.click on "Facebook" icon
+7.Click on "Twitter" icon
+8.Click on "Print" icon
+9.Click on "Email" icon 
+10.Move mouse hover on  "ADD" icon option
+11.click on "NEWSLETTER"text box field adn Enter E-mail id in the text box field  under the NEWSLETTER  and click  the subscribe and submit button 
+</t>
+  </si>
+  <si>
+    <t>1. Click on  "Semi-Automatic" hyper link under Washing Machine page
+2. Click the product image
+3. Click "Add to Cart" button 
+4. Click "Go to cart " button
+5. Click "Continue shopping" button
+6. Click "Remove Shopping Cart" button
+7. Enter the valid "Discount Codes" in the text field
+8. Click "Apply Coupon" button
+9. Click "Proceed to Checkout" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The "Semi-Automatic" page  should be opened
+2. Product web page should be  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3. The "My Wishlist" page should be displayed with the table format having columns
+            a. Product Image
+            b. Product Details and Comment
+            c. Add to Cart
+            d. Remove Item
+4. Product Question page  should be displayed and you have to give  personal details for the same 
+5. The number of product quantity should be increased/decreased5
+6. Facebook page should be opened
+7. Twitter page should be opened
+8. Print page should be opened
+9.Email page should be opened
+10.A drop-down box with the following options should be displayed
+a.Pinterest
+b.Gmail
+c.Linkedin
+d.Emailapp
+e.Tumbir
+f.Messenger
+11.If we entered valid emaild id  It should be display a message "Thank You for Your Subscription " should be  displayed on the  Home page .
+</t>
+  </si>
+  <si>
+    <t>1. The "Semi-Automatic" page  should be opened
+2. Product web page should be  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3. The "Cart" page should be displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+                  4.Shopping card page should be displayed for following items
+a. Product image
+b.product image 
+c. product price
+d.product qty
+e.remove product
+f.Move to wish list
+g. product total
+h.Shipping Price
+i.Tax
+j. Estimate Shipping and Tax
+                 i. "Country" drop-down box
+                 ii. "State/Province" drop-down box
+                 iii. "Zip/Postal Code" text box
+                 iv. "Estimate Shipping" button
+            k. Discount Codes
+                  i. "Enter your coupon code if you have one" text box
+                  ii. Apply Coupon
+            l.Gift Cards
+                 i.Enter your gift card  code if u have one"test box"
+               ii)Apply gift card
+5. Redirects to application home page
+6. Shows the message "Shopping Cart is Empty"
+7. The entered code should be displayed
+8. Discount should be displayed
+9. The "Checkout" page will be displayed with the following section:
+             a. Billing Information
+             b. Shipping Information
+             c. Shipping Method
+             d. Payment Information
+             e. Order Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Semi-Automatic page  should be opened with under Washing machine
+2. In filter option should be displayed with following 
+            a. price
+            b. availablity
+c.Brand
+d.Washing Capacity
+3.The following options for sorting the products will be displayed
+a)Featured
+b)Name: Ato Z
+c)Name:Z to A
+d)Price:Low to High
+e)Price: High to Low
+f)Newest arrivals
+4.the following page optione should be displayed 
+12
+24
+36
+48
+72
+120
+5.The number of products to be listed will be displayed based on "Grid" and "List" view
+6. Four additional options will be displayed
+            a. Add to Cart
+            b. Add to Wishlist
+            c. Add to Compare
+            d. Description
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Home Page is opened  </t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t xml:space="preserve">contact us  page is displayed 
@@ -1125,7 +1141,7 @@
             b. availablity
 c.Brand
 d.Washing Capcity
-3.The following options for sorting the products will be displayed
+3.The following options for sorting the products is displayed
 a)Featured
 b)Name: Ato Z
 c)Name:Z to A
@@ -1139,8 +1155,8 @@
 48
 72
 120
-5.The number of products to be listed will be displayed based on "Grid" and "List" view
-6. Four additional options will be displayed
+5.The number of products to be listed is  displayed based on "Grid" and "List" view
+6. Four additional options is displayed
             a. Add to Cart
             b. Add to Wishlist
             c. Add to Compare
@@ -1560,75 +1576,164 @@
 </t>
   </si>
   <si>
-    <t>1)It is displayed online registeration  creation page with followings
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Click on the "LIVE CHAT Online" Hyper link .
+3)Enter the details for online ticket registeration  for product issue.
+4)click on the  "Phone Number " Text filed  
+5)Enter Alphabet and special characters  text in "phone number"  text filed 
+6)click  on the "Submit"button 
+7)Click on the "-product- Drop down box"
+8)Select "-product-"  as mentioned  Drop Down box 
+9)click on the "Submit "Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Live Chat Window  should be displayed 
+3)Online ticket registration page should be able to write the text fileds   with following details
+   Display  Name
+     Email Id
+     Phone number
+     Product
+     Service call id
+     Subject
+4) Phone number text field  should the enabled to  write 
+5) Alphabet and special characters  text should be entered in the  "phone number"  text field 
+6)Button should be clickable &amp; It should throw the error like " Only Numeric value  should be accepted in Phone Number Text field ".
+7)In Product Drop Down Box should be displayed with following details 
+-Product-
+Smarter Mail
+Domain
+Robeta
+Web Design 
+Sky Desk
+CuteSMS
+Smarterping
+General
+CCTV
+SmarterCall
+Carry4S
+One61
+CheckIn7
+Network Complaints 
+Hardware Complaints
+Sathya Retail Complaints 
+8)-product-  should be selected on that drop down box
+9)Button should be clickable &amp; It should throw the error like "with out select the product   not able to submit so Please correct the highlighted fields".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Live chat window  is displayed 
+3)Online ticket registration page is able to write the text fileds   with following details
      Name
      Email Id
      Phone number
      Product
      Service call id
      Subject
-2)It is displayed the "ERROR " message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Semi-Automatic page should be opened with under Washing machine
-2. In filter option should be displayed with following 
-            a. price
-            b. availablity
-c.Brand
-d.Washing Capcity
-3.The following options for sorting the products should be displayed
-a)Featured
-b)Name: Ato Z
-c)Name:Z to A
-d)Price:Low to High
-e)Price: High to Low
-f)Newest arrivals
-4.the following page option should be displayed 
-12
-24
-36
-48
-72
-120
-5.The number of products to be listed should be displayed based on "Grid" and "List" view
-6. Four additional options should be displayed
-            a. Add to Cart
-            b. Add to Wishlist
-            c. Add to Compare
-            d. Description
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Semi-Automatic page is opened with under Washing machine
-2. In filter option is displayed with following 
-            a. price
-            b. availablity
-c.Brand
-d.Washing Capcity
-3.The following options for sorting the products is displayed
-a)Featured
-b)Name: Ato Z
-c)Name:Z to A
-d)Price:Low to High
-e)Price: High to Low
-f)Newest arrivals
-4.the following page optione is displayed 
-12
-24
-36
-48
-72
-120
-5.The number of products to be listed is  displayed based on "Grid" and "List" view
-6. Four additional options is displayed
-            a. Add to Cart
-            b. Add to Wishlist
-            c. Add to Compare
-            d. Description
-</t>
-  </si>
-  <si>
-    <t>PASS</t>
+4) Phone number text field  is  enabled 
+5)Alphabet and special characters  text is  entered in the  "phone number"  text field 
+6)Error message  is not displayed  but Ticket has been raised "Thanks for the message! Someone will be in touch with you shortly. If you need to follow up with us, please use reference number: 1A2-24655670-00FB"
+7)In Product Drop Down Box is displayed with following details 
+-Product-
+Smarter Mail
+Domain
+Robeta
+Web Design 
+Sky Desk
+CuteSMS
+Smarterping
+General
+CCTV
+SmarterCall
+Carry4S
+One61
+CheckIn7
+Network Complaints 
+Hardware Complaints
+Sathya Retail Complaints 
+8)-product-  is selected on that drop down box
+9)Error message  is not displayed  but ticket has been raised "Thanks for the message! Someone will be in touch with you shortly. If you need to follow up with us, please use reference number: 1A2-24655670-00FB"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The "Semi-Automatic" page should be opened
+2. Product web page should be  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3)The "Cart" page should be displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+4)Product Quantity should be enabled cursor to edit the quantity
+5) Product quantity value should be 0
+6).Shopping card page should be displayed &amp; it should displayed the error pop up  message "
+The minimum quantity allowed for purchase is 1"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The "Semi-Automatic" page is opened
+2. Product web page is  displayed with the following options
+            a. Product Image
+            b. Product Number
+            c. Product Name
+            d. Product Price
+            e. Product Availability
+            f. Product Category
+            g. Product compare
+            h.Product Question Button 
+            i. producy Quantity
+            j. "Add to Cart" button
+            k. "Add to Wishlist" button
+            l. "Add to Compare" button
+            m. Description
+            n. Reviews
+            o. Related products
+            p.Recently Viewed Products
+            q.Facebook Icon
+r.Twitter Icon
+s.Print
+t.Email
+u.Add Button
+3)The "Cart" page is displayed with three sections
+            a. Shopping Cart
+                 i. Product Image
+                 ii. Product Name
+                 iii. Producy Quantity
+                 iv. Move to Wishlist
+                 v. Subtotal
+                 vi. Remove
+                 vii. "Go to cart " button
+                 viii. "Check out" button
+4)Product Quantity is enabled curson to edit the quantity
+5) Product quantity value is 0
+6).Shopping cart page is displayed &amp; it is  displayed message  "your cart is emptyt"
+</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1744,7 @@
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,31 +1871,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1950,7 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2043,83 +2123,75 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2421,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="15.75"/>
@@ -2455,8 +2527,8 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>97</v>
+      <c r="B2" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -2470,8 +2542,8 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>95</v>
+      <c r="B3" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2484,7 +2556,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
@@ -2512,7 +2584,7 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
@@ -2577,248 +2649,231 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="60">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>27</v>
+      <c r="D12" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="60">
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A13" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="14" spans="1:9" s="17" customFormat="1" ht="105">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" ht="105">
+    <row r="15" spans="1:9" s="17" customFormat="1" ht="409.5">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" ht="409.5">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="409.5">
       <c r="A16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" s="17" customFormat="1" ht="120">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="409.5">
-      <c r="A17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" ht="120">
+        <v>107</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="75">
       <c r="A18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>113</v>
+      <c r="D18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="75">
+        <v>107</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="330.75">
       <c r="A19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="B19" s="38"/>
       <c r="C19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>114</v>
+      <c r="D19" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="330.75">
-      <c r="A20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="60" customFormat="1" ht="126">
-      <c r="A21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5">
-      <c r="A22" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5">
-      <c r="A23" s="19" t="s">
-        <v>106</v>
+    <row r="21" spans="1:9" ht="19.5">
+      <c r="A21" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2832,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
@@ -2845,7 +2900,7 @@
     <col min="3" max="3" width="29.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="25"/>
-    <col min="6" max="6" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
@@ -2869,8 +2924,8 @@
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>98</v>
+      <c r="B2" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -2884,8 +2939,8 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>96</v>
+      <c r="B3" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2898,7 +2953,7 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
@@ -2926,7 +2981,7 @@
       <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
@@ -2992,7 +3047,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -3003,487 +3058,398 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" s="44" customFormat="1" ht="409.5">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:9" s="35" customFormat="1" ht="409.5">
+      <c r="A11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="35" customFormat="1" ht="120">
+      <c r="A12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="42" t="s">
+      <c r="D12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" spans="1:9" s="44" customFormat="1" ht="240">
-      <c r="A12" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="E12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="409.5">
-      <c r="A13" s="41" t="s">
-        <v>58</v>
+      <c r="A13" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="409.5">
-      <c r="A14" s="41" t="s">
-        <v>59</v>
+      <c r="A14" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>131</v>
+      <c r="G14" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="409.5">
+    <row r="15" spans="1:9" s="45" customFormat="1" ht="409.5">
       <c r="A15" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" s="36" customFormat="1">
-      <c r="A16" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="G15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" s="45" customFormat="1">
+      <c r="A16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="409.5">
-      <c r="A17" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="A17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="270">
-      <c r="A18" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="43"/>
+      <c r="G17" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="150">
+      <c r="A18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>131</v>
+      <c r="G18" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="409.5">
-      <c r="A19" s="41" t="s">
-        <v>75</v>
+      <c r="A19" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>131</v>
+      <c r="G19" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.5">
-      <c r="A20" s="41" t="s">
-        <v>76</v>
+      <c r="A20" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>131</v>
+      <c r="G20" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.5">
       <c r="A21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="36" customFormat="1">
-      <c r="A22" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="G21" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1">
+      <c r="A22" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="409.5">
-      <c r="A23" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="270">
-      <c r="A24" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="43"/>
+      <c r="G23" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="150">
+      <c r="A24" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="34"/>
       <c r="C24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>131</v>
+      <c r="G24" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="409.5">
-      <c r="A25" s="41" t="s">
-        <v>85</v>
+      <c r="A25" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>131</v>
+      <c r="G25" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="409.5">
-      <c r="A26" s="41" t="s">
-        <v>86</v>
+      <c r="A26" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>131</v>
+      <c r="G26" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.5">
       <c r="A27" s="28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="18" customFormat="1" ht="409.5">
+      <c r="A28" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="53" customFormat="1" ht="285">
-      <c r="A28" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="55" t="s">
+      <c r="G28" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:A26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A9:A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9" spans="1:1" ht="409.5">
-      <c r="A9" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="90">
-      <c r="A10" s="46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="409.5">
-      <c r="A11" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="409.5">
-      <c r="A12" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="409.5">
-      <c r="A13" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="35"/>
-    </row>
-    <row r="15" spans="1:1" ht="409.5">
-      <c r="A15" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="120">
-      <c r="A16" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="409.5">
-      <c r="A17" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="409.5">
-      <c r="A18" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="409.5">
-      <c r="A19" s="39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="35"/>
-    </row>
-    <row r="21" spans="1:1" ht="409.5">
-      <c r="A21" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="120">
-      <c r="A22" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="409.5">
-      <c r="A23" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="409.5">
-      <c r="A24" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="409.5">
-      <c r="A25" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="135">
-      <c r="A26" s="55" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="409.5">
+      <c r="A29" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>128</v>
       </c>
+      <c r="H29" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
